--- a/similarities/split_global/harmonic_similarity_timestamps_151.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_151.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,754 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_182</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B', 'F#', 'B']]</t>
+          <t>['Eb/5', 'Ab', 'Eb/3']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:40.960000', '0:00:43.300000')]</t>
+          <t>('0:02:34.020000', '0:02:39.240000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:24.838594', '0:00:43.252018')]</t>
+          <t>('0:01:26.923922', '0:01:32.322562')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=24.838594']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>jaah_5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>jaah_62</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['D:min7', 'G:7', 'C:min7', 'F:7']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['A:min7', 'D:7', 'G:min7', 'C:7']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
+          <t>('0:00:19.030000', '0:00:22.230000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:12.060000', '0:00:17.060000')]</t>
+          <t>('0:00:29.040000', '0:00:30.520000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=40.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-5#t=19.03</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-62#t=29.04</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>schubert-winterreise_213</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C', 'F:min', 'C#'], ['F:min', 'F#/A#', 'F:min/C']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G', 'C:min', 'Ab'], ['C:min', 'Db', 'C:min']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:12.080000', '0:00:24.980000'), ('0:03:02.640000', '0:03:04.840000')]</t>
+          <t>('0:00:42.940000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:54.639000', '0:00:59.554000'), ('0:01:03.359000', '0:01:09.226000')]</t>
+          <t>('0:01:24', '0:01:30.840000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=12.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=182.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=54.639', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=63.359']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=84.0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:26.040000', '0:00:59.820000')]</t>
+          <t>('0:01:07.760000', '0:01:24.780000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:49.280000', '0:01:04.980000')]</t>
+          <t>('0:00:00.800000', '0:00:10.540000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=26.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=67.76</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=49.28']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>isophonics_291</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D', 'B:min', 'E:min'], ['D/3', 'G', 'D']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:22.862248', '0:00:25.887570'), ('0:00:57.251357', '0:01:13.909779')]</t>
+          <t>('0:00:03.044470', '0:00:11.035850')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:10.460000', '0:00:20.240000'), ('0:00:21.580000', '0:00:29.340000')]</t>
+          <t>('0:01:00.040000', '0:01:07.080000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=22.862248', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=10.46', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_115</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:19.000294', '0:00:29.309954')]</t>
+          <t>('0:02:12.420000', '0:02:42.760000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:46.560000', '0:00:49.080000')]</t>
+          <t>('0:00:00.380000', '0:00:43.320000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=19.000294']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=132.42</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>isophonics_291</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:maj', 'G:maj']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:25.850181', '0:00:31.898979')]</t>
+          <t>('0:00:34.410000', '0:00:39.540000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:00.898000', '0:01:07.056000')]</t>
+          <t>('0:00:03.044470', '0:00:11.035850')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=25.850181']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=60.898']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:42.400000', '0:02:01.440000')]</t>
+          <t>('0:00:20.200000', '0:00:22.820000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:00.820000', '0:01:06.820000')]</t>
+          <t>('0:01:14.400000', '0:01:26.060000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=102.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=20.2</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=60.82']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
+          <t>['A#:min/F', 'F', 'A#:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:46.520000', '0:00:48.940000')]</t>
+          <t>('0:00:47.020000', '0:00:51.380000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:07.140000')]</t>
+          <t>('0:00:13.360000', '0:00:20.940000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=0.36']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.500000')]</t>
+          <t>('0:00:28.009637', '0:00:33.826235')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:04:11.500000', '0:04:17.660000')]</t>
+          <t>('0:01:02.530000', '0:01:09.910000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>isophonics_166</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['B', 'F#', 'B', 'F#', 'B']]</t>
+          <t>['D:maj', 'G:maj/B', 'D:7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C', 'G/3', 'C', 'G/3', 'C']]</t>
+          <t>['D', 'G', 'D:7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:02:31.259637', '0:02:37.900544')]</t>
+          <t>('0:00:16.880000', '0:00:19.960000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:10.148000', '0:02:12.075000')]</t>
+          <t>('0:00:19.139614', '0:00:32.700068')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=151.259637']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=16.88</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=130.148']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=19.139614</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>isophonics_248</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>isophonics_197</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G#/C', 'D#:7/A#', 'G#/C']]</t>
+          <t>['E/5', 'F#/4', 'B']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Cb', 'Gb:7', 'Cb']]</t>
+          <t>['D', 'E', 'A']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:52.580000', '0:00:54.240000')]</t>
+          <t>('0:02:06.195000', '0:02:11.396000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:46.759000', '0:00:50.551000')]</t>
+          <t>('0:00:16.088141', '0:00:27.709728')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=52.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=126.195</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=46.759']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-197#t=16.088141</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:32.874217', '0:00:37.657528'), ('0:00:33.698526', '0:00:42.916848')]</t>
+          <t>('0:00:00.360000', '0:00:05')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:02:37.840000', '0:02:40.980000'), ('0:02:34.760000', '0:02:39.840000')]</t>
+          <t>('0:00:37.360000', '0:00:44.660000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=32.874217', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=33.698526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=0.36</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=157.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_165</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj/B', 'C:min'], ['C:min', 'G:7/D', 'C:min/D#']]</t>
+          <t>['E:min', 'B:(3,5,b7,b9)', 'E:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:12.280000', '0:00:19.740000'), ('0:00:23.300000', '0:00:29.360000')]</t>
+          <t>('0:00:56.760000', '0:01:02.320000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:13.520000', '0:00:19.080000'), ('0:00:02', '0:00:04.320000')]</t>
+          <t>('0:01:34.060000', '0:01:53.500000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=56.76</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=94.06</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:45.260000', '0:00:57.580000')]</t>
+          <t>('0:01:51.920000', '0:01:55.360000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:02.020000', '0:00:10.620000')]</t>
+          <t>('0:00:28.009637', '0:00:33.826235')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=45.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.02']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
